--- a/content/plataformes/dadesref/entitats/Genere.xlsx
+++ b/content/plataformes/dadesref/entitats/Genere.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/37.Genere/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\37.Genere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{8187A186-E8B2-4FE2-987E-BA5EA9200FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D8040C42-9F1C-4152-A841-958A39649B8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB6EB17-1B72-4C08-9032-6CCC5E67670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gènere" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,9 +59,6 @@
     <t xml:space="preserve">Nom entitat: </t>
   </si>
   <si>
-    <t>No binari</t>
-  </si>
-  <si>
     <t>Masculí</t>
   </si>
   <si>
@@ -73,6 +75,9 @@
   </si>
   <si>
     <t>Nom</t>
+  </si>
+  <si>
+    <t>No-binari</t>
   </si>
 </sst>
 </file>
@@ -184,21 +189,6 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -233,6 +223,21 @@
           <color indexed="22"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -287,8 +292,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -561,14 +566,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.453125" style="2"/>
+    <col min="3" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -576,39 +581,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -616,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -637,10 +642,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005A3960399C2234EB92CC9686FF6F87F" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6b9fb4baab9ad9fbdda99e3f5c22fc21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3aff557-982a-455c-8bbc-92c71da94542" xmlns:ns3="857edd72-1fa1-43ec-b599-5660574b73e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="431e8fb1ae557487b3a709321472510d" ns2:_="" ns3:_="">
-    <xsd:import namespace="f3aff557-982a-455c-8bbc-92c71da94542"/>
-    <xsd:import namespace="857edd72-1fa1-43ec-b599-5660574b73e4"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
+    <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -649,6 +673,11 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
@@ -658,7 +687,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f3aff557-982a-455c-8bbc-92c71da94542" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae060729-66f1-4cea-a45e-be2331389c13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -671,11 +700,40 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="857edd72-1fa1-43ec-b599-5660574b73e4" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -694,7 +752,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -801,36 +859,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09C347C-572F-4F84-830A-4DB431E2DAA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3aff557-982a-455c-8bbc-92c71da94542"/>
-    <ds:schemaRef ds:uri="857edd72-1fa1-43ec-b599-5660574b73e4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -852,9 +884,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9294C481-228B-4B93-91B2-1C0D5030B6F3}"/>
 </file>
--- a/content/plataformes/dadesref/entitats/Genere.xlsx
+++ b/content/plataformes/dadesref/entitats/Genere.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\37.Genere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB6EB17-1B72-4C08-9032-6CCC5E67670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{7EB6EB17-1B72-4C08-9032-6CCC5E67670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{478821E0-B190-41CE-8ADA-81EBF2E80FA8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gènere" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,53 +38,53 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t xml:space="preserve">Nom entitat: </t>
+  </si>
+  <si>
+    <t>Gènere</t>
+  </si>
+  <si>
     <t>Codi</t>
   </si>
   <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Dona</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>No-binari</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>No consta</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>Altres</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Gènere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom entitat: </t>
-  </si>
-  <si>
-    <t>Masculí</t>
-  </si>
-  <si>
-    <t>Femení</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>No-binari</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,17 +168,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -564,69 +563,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -661,8 +661,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="13" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="975764f6ad4851f62dc57c3657271973">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a09df0a8653da91c10cb7921c3578835" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
     <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
@@ -680,6 +680,9 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -700,7 +703,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetes de la imatge" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -729,11 +732,26 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartit amb" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -752,7 +770,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="S'ha compartit amb detalls" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -769,8 +787,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -860,29 +878,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9294C481-228B-4B93-91B2-1C0D5030B6F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E528E1C8-D44A-4A85-8102-919F3728C0F9}"/>
 </file>